--- a/Config/Scenes.xlsx
+++ b/Config/Scenes.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\毕业设计\rescue-endangered\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497F3C60-A12B-45AC-962E-05EA49209798}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F389A5-6210-4DB8-922D-AADC51A29F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15015" yWindow="495" windowWidth="16260" windowHeight="10845" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SceneDef" sheetId="4" r:id="rId1"/>
-    <sheet name="Scene" sheetId="5" r:id="rId2"/>
+    <sheet name="Scene" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -55,42 +54,6 @@
   </si>
   <si>
     <t>Habitat_Panda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CanPause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大熊猫栖息地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景是否可暂停</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,160 +399,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C319EAB0-E15C-48AE-9953-B84954D6139C}">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="3" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="3"/>
-    <col min="8" max="16384" width="9" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E23" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B213F6-79DE-4299-84B6-68216C067E12}">
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -609,9 +423,6 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -621,9 +432,6 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -633,9 +441,6 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -645,9 +450,6 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
@@ -657,9 +459,6 @@
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>

--- a/Config/Scenes.xlsx
+++ b/Config/Scenes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F389A5-6210-4DB8-922D-AADC51A29F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1648994D-F999-4376-B63C-1AA1E5CCC6E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -53,8 +53,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Habitat_Panda</t>
+    <t>Habitat_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Habitat_02</t>
+  </si>
+  <si>
+    <t>Habitat_03</t>
   </si>
 </sst>
 </file>
@@ -403,7 +409,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,10 +470,22 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>

--- a/Config/Scenes.xlsx
+++ b/Config/Scenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1648994D-F999-4376-B63C-1AA1E5CCC6E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1061F281-27EA-4AAD-AE40-7A6149F5EA94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -61,6 +61,14 @@
   </si>
   <si>
     <t>Habitat_03</t>
+  </si>
+  <si>
+    <t>HabitatID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栖息地 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -409,14 +417,14 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="16384" width="9" style="4"/>
@@ -429,6 +437,9 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -438,6 +449,9 @@
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -447,6 +461,9 @@
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -466,6 +483,9 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -476,6 +496,9 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
@@ -485,6 +508,9 @@
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>

--- a/Config/Scenes.xlsx
+++ b/Config/Scenes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1061F281-27EA-4AAD-AE40-7A6149F5EA94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1C690-10B4-4188-9F66-F56F4C9B421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,21 +53,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Habitat_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Habitat_02</t>
-  </si>
-  <si>
-    <t>Habitat_03</t>
-  </si>
-  <si>
     <t>HabitatID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>栖息地 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Habitat_Valley</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Habitat_Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Habitat_Swamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,13 +419,13 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="13.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="4"/>
     <col min="6" max="6" width="9" style="3"/>
@@ -438,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -462,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -481,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -494,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -507,7 +509,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>

--- a/Config/Scenes.xlsx
+++ b/Config/Scenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A1C690-10B4-4188-9F66-F56F4C9B421B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B0C86-630C-4B98-93AB-A8561BAC0AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -70,6 +70,38 @@
   </si>
   <si>
     <t>Habitat_Swamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27.1,6.57,-60.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BirthPointPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生点角度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BirthPointAngles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B213F6-79DE-4299-84B6-68216C067E12}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -427,7 +459,8 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14.875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9" style="4"/>
+    <col min="4" max="4" width="17.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
@@ -442,6 +475,12 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -454,6 +493,12 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -466,6 +511,12 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -473,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -483,10 +534,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -496,28 +544,41 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
@@ -543,6 +604,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="3"/>
@@ -570,6 +632,9 @@
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Config/Scenes.xlsx
+++ b/Config/Scenes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\graduation-design\habitats-exploration\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5B0C86-630C-4B98-93AB-A8561BAC0AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659E9A4-7891-4EA8-B55A-74043DE5B4BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1095" yWindow="-120" windowWidth="27825" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Habitat_Swamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>float[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,10 @@
   </si>
   <si>
     <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7.75,9.137,-59.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,6 +166,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -451,7 +454,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -476,10 +479,10 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -494,10 +497,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -512,10 +515,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -524,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -550,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -566,19 +569,14 @@
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3</v>
-      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
